--- a/Assets/GameMain/DataTables/Bullet.xlsx
+++ b/Assets/GameMain/DataTables/Bullet.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
